--- a/plots/metrics.xlsx
+++ b/plots/metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="B2" t="n">
         <v>-39.99999999999932</v>
@@ -463,7 +463,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="B3" t="n">
         <v>-39.99999999999932</v>
@@ -474,10 +474,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="B4" t="n">
-        <v>-39.99999999999932</v>
+        <v>-39.49999999999933</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -485,10 +485,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="B5" t="n">
-        <v>-38.99999999999933</v>
+        <v>-38.09999999999935</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -496,12 +496,232 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="B6" t="n">
-        <v>1.6</v>
+        <v>-38.09999999999935</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>12000</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-38.59999999999935</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>14000</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-38.09999999999935</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>16000</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>18000</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-38.59999999999935</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-39.09999999999935</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>22000</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>24000</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>26000</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>28000</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.016</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>30000</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>32000</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34000</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36000</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38000</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>40000</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>42000</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>44000</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>46000</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>48000</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>50000</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="C26" t="n">
         <v>1</v>
       </c>
     </row>

--- a/plots/metrics.xlsx
+++ b/plots/metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,259 +472,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>6000</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-39.49999999999933</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>8000</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-38.09999999999935</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>10000</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-38.09999999999935</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>12000</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-38.59999999999935</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>14000</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-38.09999999999935</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>16000</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>18000</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-38.59999999999935</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>20000</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-39.09999999999935</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>22000</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>24000</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>26000</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>28000</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2.016</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>30000</v>
-      </c>
-      <c r="B16" t="n">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>32000</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>34000</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>36000</v>
-      </c>
-      <c r="B19" t="n">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>38000</v>
-      </c>
-      <c r="B20" t="n">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>40000</v>
-      </c>
-      <c r="B21" t="n">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>42000</v>
-      </c>
-      <c r="B22" t="n">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>44000</v>
-      </c>
-      <c r="B23" t="n">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>46000</v>
-      </c>
-      <c r="B24" t="n">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>48000</v>
-      </c>
-      <c r="B25" t="n">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>50000</v>
-      </c>
-      <c r="B26" t="n">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/plots/metrics.xlsx
+++ b/plots/metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,6 +472,259 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6000</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-39.49999999999933</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>8000</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-38.09999999999935</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-38.09999999999935</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>12000</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-38.59999999999935</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>14000</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-38.09999999999935</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>16000</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>18000</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-38.59999999999935</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-39.09999999999935</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>22000</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>24000</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>26000</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>28000</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.016</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>30000</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>32000</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34000</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36000</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38000</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>40000</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>42000</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>44000</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>46000</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>48000</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>50000</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
